--- a/Korea Restaurants Dataset Cleaned With Websites Links.xlsx
+++ b/Korea Restaurants Dataset Cleaned With Websites Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manal\Desktop\Korean Restaurant Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1A23BB-D9A5-450F-9AFE-0DC0A5000A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF43D436-C95E-4E7B-B5BB-6E386190A93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="709">
   <si>
     <t>Restaurant Name</t>
   </si>
@@ -1910,6 +1910,252 @@
   </si>
   <si>
     <t>https://bibimbapsoho.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.imonelondon.com/</t>
+  </si>
+  <si>
+    <t>https://www.cocoandbibi.co.uk/</t>
+  </si>
+  <si>
+    <t>https://bentobab.com/</t>
+  </si>
+  <si>
+    <t>https://jingogae.wordpress.com/</t>
+  </si>
+  <si>
+    <t>https://sagyelondon.com/</t>
+  </si>
+  <si>
+    <t>https://k-poprestaurant.com/</t>
+  </si>
+  <si>
+    <t>https://eatopialondon.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.bunsik.co.uk/locations/camden</t>
+  </si>
+  <si>
+    <t>https://yanjirestaurant.com/</t>
+  </si>
+  <si>
+    <t>https://tongdak.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hanruebytastykorea/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.ktown.uk/</t>
+  </si>
+  <si>
+    <t>https://www.hankang.co.uk/hankang.html</t>
+  </si>
+  <si>
+    <t>https://www.bunsik.co.uk/locations/embankment</t>
+  </si>
+  <si>
+    <t>https://www.thefork.co.uk/restaurant/woojung-bbq-holborn-r839043</t>
+  </si>
+  <si>
+    <t>https://spicy-grill.res-menu.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yourmumskitchen_london/?hl=en</t>
+  </si>
+  <si>
+    <t>http://www.bibimbabcafe.com/</t>
+  </si>
+  <si>
+    <t>https://restaurantguru.com/Iteaja-United-Kingdom</t>
+  </si>
+  <si>
+    <t>https://kintan.uk/</t>
+  </si>
+  <si>
+    <t>https://www.mandarinoriental.com/en/london/mayfair/dine/somssi-by-jihun-kim</t>
+  </si>
+  <si>
+    <t>https://www.gogopocha.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.sushiandmore.com/menu</t>
+  </si>
+  <si>
+    <t>https://shop.wingmans.co.uk/</t>
+  </si>
+  <si>
+    <t>https://inkonitorestaurant.com/locations/london-soho/</t>
+  </si>
+  <si>
+    <t>https://113ktv.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.mandarinoriental.com/en/london/mayfair/dine/the-restaurant</t>
+  </si>
+  <si>
+    <t>https://www.bancone.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.kobalondon.com/</t>
+  </si>
+  <si>
+    <t>https://www.redfarmldn.com/</t>
+  </si>
+  <si>
+    <t>https://www.fishplaice.london/</t>
+  </si>
+  <si>
+    <t>https://wokandfire.co.uk/</t>
+  </si>
+  <si>
+    <t>https://wingwing.co.uk/</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mangotreerestaurant/?hl=en</t>
+  </si>
+  <si>
+    <t>https://bibimbapsoho.co.uk/togo</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/majangdong.london/?hl=en</t>
+  </si>
+  <si>
+    <t>https://bentore.co.uk/</t>
+  </si>
+  <si>
+    <t>https://yoriuk.com/covent-garden/</t>
+  </si>
+  <si>
+    <t>https://ssamssam.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.kokogrill.co.uk/</t>
+  </si>
+  <si>
+    <t>https://mukbapkoreanvegan.co.uk/</t>
+  </si>
+  <si>
+    <t>https://taeyang-pocha-korean-bbq-soju-restaurant.foodjoyy.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/seoultokyo_restaurant/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/miga.restaurant/?hl=en</t>
+  </si>
+  <si>
+    <t>https://gamnamuzip.co.uk/</t>
+  </si>
+  <si>
+    <t>https://yoriuk.com/yori-shoreditch/</t>
+  </si>
+  <si>
+    <t>https://www.cheemcuk.com/</t>
+  </si>
+  <si>
+    <t>https://bap-foods.com/</t>
+  </si>
+  <si>
+    <t>https://kangnampocha.shop/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/seoulbakerylondon/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.limeorange.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hana_korean/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.imonebbq.com/</t>
+  </si>
+  <si>
+    <t>https://donburiuk.com/</t>
+  </si>
+  <si>
+    <t>https://www.deundeun.uk/</t>
+  </si>
+  <si>
+    <t>https://www.kbbqhouse.co.uk/</t>
+  </si>
+  <si>
+    <t>https://kkitchenonline.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/locations/155522398433992/masigo/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.bunsik.co.uk/locations/leicester-square</t>
+  </si>
+  <si>
+    <t>https://www.gogi-restaurant.com/</t>
+  </si>
+  <si>
+    <t>https://zipbablondon.com/</t>
+  </si>
+  <si>
+    <t>https://www.chosim.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/babsanguk/?hl=en</t>
+  </si>
+  <si>
+    <t>http://toh-bang.com/</t>
+  </si>
+  <si>
+    <t>https://baribari.goto-restaurants.com/</t>
+  </si>
+  <si>
+    <t>https://yoriuk.com/clapham/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ozukisushi/?hl=en-gb</t>
+  </si>
+  <si>
+    <t>https://ssamkoreandining.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.horangeepocha.com/</t>
+  </si>
+  <si>
+    <t>https://www.zanchi.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/babnsuul.london/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bwon_london/?hl=en</t>
+  </si>
+  <si>
+    <t>https://kumkang.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.simya.uk/</t>
+  </si>
+  <si>
+    <t>https://www.arirangrestaurantlondon.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gaya.london/?hl=en-gb</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kkini_korean_grill/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.maeumkorean.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bunboylondon/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.ogamtapasbar.com/</t>
+  </si>
+  <si>
+    <t>Links</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +2192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1969,17 +2215,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2285,13 +2547,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2328,6 +2593,9 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4131,6 +4399,9 @@
       <c r="K55">
         <v>-4.4969592</v>
       </c>
+      <c r="L55" s="2" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -4163,6 +4434,9 @@
       <c r="K56">
         <v>-0.1233544</v>
       </c>
+      <c r="L56" s="2" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -4195,6 +4469,9 @@
       <c r="K57">
         <v>-0.12955810000000001</v>
       </c>
+      <c r="L57" s="2" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -4227,6 +4504,9 @@
       <c r="K58">
         <v>-0.1418962</v>
       </c>
+      <c r="L58" s="2" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -4259,6 +4539,9 @@
       <c r="K59">
         <v>-0.16585130000000001</v>
       </c>
+      <c r="L59" s="2" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -4291,6 +4574,9 @@
       <c r="K60">
         <v>-0.26340659999999999</v>
       </c>
+      <c r="L60" s="2" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -4323,6 +4609,9 @@
       <c r="K61">
         <v>-7.7478500000000006E-2</v>
       </c>
+      <c r="L61" s="2" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -4355,6 +4644,9 @@
       <c r="K62">
         <v>1.1848382</v>
       </c>
+      <c r="L62" s="2" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -4387,6 +4679,9 @@
       <c r="K63">
         <v>-9.2873899999999995E-2</v>
       </c>
+      <c r="L63" s="2" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -4419,8 +4714,11 @@
       <c r="K64">
         <v>1.1349051000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>259</v>
       </c>
@@ -4451,8 +4749,11 @@
       <c r="K65">
         <v>-0.10837629999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>263</v>
       </c>
@@ -4483,8 +4784,11 @@
       <c r="K66">
         <v>-0.12839059999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>267</v>
       </c>
@@ -4516,7 +4820,7 @@
         <v>-0.2305324</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>271</v>
       </c>
@@ -4547,8 +4851,11 @@
       <c r="K68">
         <v>-0.1768632</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>275</v>
       </c>
@@ -4579,8 +4886,11 @@
       <c r="K69">
         <v>-0.11744</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>279</v>
       </c>
@@ -4611,8 +4921,11 @@
       <c r="K70">
         <v>-0.22517860000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>283</v>
       </c>
@@ -4643,8 +4956,11 @@
       <c r="K71">
         <v>-6.5401100000000004E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>287</v>
       </c>
@@ -4675,8 +4991,11 @@
       <c r="K72">
         <v>-0.1109801</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -4707,8 +5026,11 @@
       <c r="K73">
         <v>-6.8703100000000003E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>295</v>
       </c>
@@ -4739,8 +5061,11 @@
       <c r="K74">
         <v>-0.16364229999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>299</v>
       </c>
@@ -4771,8 +5096,11 @@
       <c r="K75">
         <v>-0.1789616</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>303</v>
       </c>
@@ -4803,8 +5131,11 @@
       <c r="K76">
         <v>-0.1112353</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>307</v>
       </c>
@@ -4835,8 +5166,11 @@
       <c r="K77">
         <v>-9.3951999999999994E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>311</v>
       </c>
@@ -4867,8 +5201,11 @@
       <c r="K78">
         <v>-0.1121265</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>315</v>
       </c>
@@ -4899,8 +5236,11 @@
       <c r="K79">
         <v>-0.1730971</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>319</v>
       </c>
@@ -4931,8 +5271,11 @@
       <c r="K80">
         <v>-0.1303581</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>323</v>
       </c>
@@ -4963,8 +5306,11 @@
       <c r="K81">
         <v>-0.12583639999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>327</v>
       </c>
@@ -4995,8 +5341,11 @@
       <c r="K82">
         <v>-0.26340659999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>329</v>
       </c>
@@ -5027,8 +5376,11 @@
       <c r="K83">
         <v>-75.835708699999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>333</v>
       </c>
@@ -5059,8 +5411,11 @@
       <c r="K84">
         <v>-0.13742869999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>337</v>
       </c>
@@ -5091,8 +5446,11 @@
       <c r="K85">
         <v>-0.23259840000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>341</v>
       </c>
@@ -5123,8 +5481,11 @@
       <c r="K86">
         <v>-0.1392977</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>345</v>
       </c>
@@ -5155,8 +5516,11 @@
       <c r="K87">
         <v>-0.12595190000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -5187,8 +5551,11 @@
       <c r="K88">
         <v>-0.1463158</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>353</v>
       </c>
@@ -5219,8 +5586,11 @@
       <c r="K89">
         <v>-0.1101832</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>357</v>
       </c>
@@ -5243,7 +5613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>360</v>
       </c>
@@ -5274,8 +5644,11 @@
       <c r="K91">
         <v>-0.26340659999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>362</v>
       </c>
@@ -5306,8 +5679,11 @@
       <c r="K92">
         <v>-0.2035024</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>366</v>
       </c>
@@ -5338,8 +5714,11 @@
       <c r="K93">
         <v>-0.1077709</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>370</v>
       </c>
@@ -5370,8 +5749,11 @@
       <c r="K94">
         <v>-0.26340659999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>372</v>
       </c>
@@ -5402,8 +5784,11 @@
       <c r="K95">
         <v>151.0779703</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>376</v>
       </c>
@@ -5434,8 +5819,11 @@
       <c r="K96">
         <v>-0.14185500000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>380</v>
       </c>
@@ -5466,8 +5854,11 @@
       <c r="K97">
         <v>-0.12997600000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>366</v>
       </c>
@@ -5490,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>386</v>
       </c>
@@ -5521,8 +5912,11 @@
       <c r="K99">
         <v>-0.14419470000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>120</v>
       </c>
@@ -5553,8 +5947,11 @@
       <c r="K100">
         <v>-0.10256079999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>393</v>
       </c>
@@ -5585,8 +5982,11 @@
       <c r="K101">
         <v>-7.0648799999999998E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>397</v>
       </c>
@@ -5614,8 +6014,11 @@
       <c r="K102">
         <v>17.323110700000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>400</v>
       </c>
@@ -5646,8 +6049,11 @@
       <c r="K103">
         <v>-0.26340659999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>402</v>
       </c>
@@ -5678,8 +6084,11 @@
       <c r="K104">
         <v>-0.26340659999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -5710,8 +6119,11 @@
       <c r="K105">
         <v>-0.1317826</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>408</v>
       </c>
@@ -5734,7 +6146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>411</v>
       </c>
@@ -5765,8 +6177,11 @@
       <c r="K107">
         <v>-0.1239667</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>415</v>
       </c>
@@ -5797,8 +6212,11 @@
       <c r="K108">
         <v>-0.11781850000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>419</v>
       </c>
@@ -5829,8 +6247,11 @@
       <c r="K109">
         <v>-0.20075870000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>423</v>
       </c>
@@ -5861,8 +6282,11 @@
       <c r="K110">
         <v>-0.17951790000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>427</v>
       </c>
@@ -5893,8 +6317,11 @@
       <c r="K111">
         <v>-0.12577530000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>431</v>
       </c>
@@ -5925,8 +6352,11 @@
       <c r="K112">
         <v>144.25374059999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>433</v>
       </c>
@@ -5957,8 +6387,11 @@
       <c r="K113">
         <v>-0.14269870000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>437</v>
       </c>
@@ -5989,8 +6422,11 @@
       <c r="K114">
         <v>-5.0245214999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>441</v>
       </c>
@@ -6021,8 +6457,11 @@
       <c r="K115">
         <v>-0.1108388</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>445</v>
       </c>
@@ -6053,8 +6492,11 @@
       <c r="K116">
         <v>-0.1756894</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>449</v>
       </c>
@@ -6085,8 +6527,11 @@
       <c r="K117">
         <v>-0.13150529999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>453</v>
       </c>
@@ -6117,8 +6562,11 @@
       <c r="K118">
         <v>-0.1356763</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>457</v>
       </c>
@@ -6141,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>460</v>
       </c>
@@ -6172,8 +6620,11 @@
       <c r="K120">
         <v>-0.13863890000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>464</v>
       </c>
@@ -6204,8 +6655,11 @@
       <c r="K121">
         <v>-5.0245214999999996</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>466</v>
       </c>
@@ -6236,8 +6690,11 @@
       <c r="K122">
         <v>-0.1264122</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>470</v>
       </c>
@@ -6268,8 +6725,11 @@
       <c r="K123">
         <v>-0.1348568</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>474</v>
       </c>
@@ -6300,8 +6760,11 @@
       <c r="K124">
         <v>-83.002166299999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>478</v>
       </c>
@@ -6332,8 +6795,11 @@
       <c r="K125">
         <v>-0.1260685</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>482</v>
       </c>
@@ -6364,8 +6830,11 @@
       <c r="K126">
         <v>-0.1328048</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>486</v>
       </c>
@@ -6396,8 +6865,11 @@
       <c r="K127">
         <v>-0.12793099999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>490</v>
       </c>
@@ -6428,8 +6900,11 @@
       <c r="K128">
         <v>-7.1463799999999994E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>494</v>
       </c>
@@ -6460,8 +6935,11 @@
       <c r="K129">
         <v>-0.14727419999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>498</v>
       </c>
@@ -6492,8 +6970,11 @@
       <c r="K130">
         <v>-8.3746000000000001E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>502</v>
       </c>
@@ -6516,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>505</v>
       </c>
@@ -6547,8 +7028,11 @@
       <c r="K132">
         <v>-0.13138040000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>509</v>
       </c>
@@ -6579,8 +7063,11 @@
       <c r="K133">
         <v>-1.6041400000000001E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>180</v>
       </c>
@@ -6611,8 +7098,11 @@
       <c r="K134">
         <v>-0.1069841</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>516</v>
       </c>
@@ -6643,8 +7133,11 @@
       <c r="K135">
         <v>151.0532934</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>520</v>
       </c>
@@ -6675,8 +7168,11 @@
       <c r="K136">
         <v>-83.711754900000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>524</v>
       </c>
@@ -6707,8 +7203,11 @@
       <c r="K137">
         <v>-7.8192200000000003E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>528</v>
       </c>
@@ -6739,8 +7238,11 @@
       <c r="K138">
         <v>-8.1885100000000002E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>532</v>
       </c>
@@ -6771,8 +7273,11 @@
       <c r="K139">
         <v>-3.2924000000000002E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>536</v>
       </c>
@@ -6803,8 +7308,11 @@
       <c r="K140">
         <v>-9.2956800000000006E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>540</v>
       </c>
@@ -6835,8 +7343,11 @@
       <c r="K141">
         <v>-0.109485</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>544</v>
       </c>
@@ -6867,8 +7378,11 @@
       <c r="K142">
         <v>-5.7660700000000002E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>548</v>
       </c>
@@ -6899,8 +7413,11 @@
       <c r="K143">
         <v>-8.0563599999999999E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>552</v>
       </c>
@@ -6930,6 +7447,9 @@
       </c>
       <c r="K144">
         <v>-0.1346263</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -7170,6 +7690,89 @@
     <hyperlink ref="L147" r:id="rId48" xr:uid="{7C2B75F6-F1CF-4A50-A785-3D58BCF56B0E}"/>
     <hyperlink ref="L148" r:id="rId49" xr:uid="{D2BD93B6-5CD5-423B-B243-76AF08CB3508}"/>
     <hyperlink ref="L149" r:id="rId50" xr:uid="{F9C9FDF0-F85F-4EC8-A7AA-C48D9D639E02}"/>
+    <hyperlink ref="L91" r:id="rId51" xr:uid="{69BD7329-7C4B-458E-B0BB-C3B1D07F8FE3}"/>
+    <hyperlink ref="L92" r:id="rId52" xr:uid="{081504D9-23E8-4AC1-95FB-DF923BFE85DC}"/>
+    <hyperlink ref="L93" r:id="rId53" xr:uid="{1426C245-8DCA-49A5-9CA2-801817AC1ECF}"/>
+    <hyperlink ref="L94" r:id="rId54" xr:uid="{4AAB1EA4-7041-4C4F-894A-1CB3FA61B7B3}"/>
+    <hyperlink ref="L95" r:id="rId55" xr:uid="{F9D6E79B-E3EE-413B-AFD3-1B4E03DE7159}"/>
+    <hyperlink ref="L96" r:id="rId56" xr:uid="{5D36D244-F6BC-4E0E-A722-C382DD90060B}"/>
+    <hyperlink ref="L97" r:id="rId57" xr:uid="{4E86A432-B94A-4B91-B063-9D60C1F41F3A}"/>
+    <hyperlink ref="L99" r:id="rId58" xr:uid="{3CF8BA5D-8FF2-4FA3-8319-0A2E728F27D8}"/>
+    <hyperlink ref="L100" r:id="rId59" xr:uid="{0731A110-5EF2-4FE9-8587-B7A47F4F7181}"/>
+    <hyperlink ref="L101" r:id="rId60" xr:uid="{17135D0A-24A4-4D3C-A508-2F9D89819E16}"/>
+    <hyperlink ref="L103" r:id="rId61" xr:uid="{2736414B-156E-4F3B-974D-D7080DEDA0E8}"/>
+    <hyperlink ref="L102" r:id="rId62" xr:uid="{9C50F8AC-7DB9-44B7-BC43-6F355B7A0C3D}"/>
+    <hyperlink ref="L104" r:id="rId63" xr:uid="{676D6477-6070-4467-89A5-128ABC8AD75F}"/>
+    <hyperlink ref="L105" r:id="rId64" xr:uid="{5BF9A453-0DAF-4402-8A92-7B6F1241DCD1}"/>
+    <hyperlink ref="L107" r:id="rId65" xr:uid="{5F70EA0F-4B82-4B20-991C-D638997DEA7D}"/>
+    <hyperlink ref="L108" r:id="rId66" xr:uid="{9540AF50-AC3A-4A4C-B990-D1D1559C62F9}"/>
+    <hyperlink ref="L109" r:id="rId67" xr:uid="{6ECE58C9-E024-449E-B7A6-29B21BCB2057}"/>
+    <hyperlink ref="L110" r:id="rId68" xr:uid="{8B69D3AD-8BF5-4B96-AD51-E418EFFCD0CB}"/>
+    <hyperlink ref="L111" r:id="rId69" xr:uid="{3E66E82F-86AB-47D8-B16B-17D051AC6396}"/>
+    <hyperlink ref="L112" r:id="rId70" xr:uid="{E5D96453-ED2C-4EE5-B9AC-BF18AFF086C8}"/>
+    <hyperlink ref="L113" r:id="rId71" xr:uid="{73FB5BD0-C07B-4D6C-9DED-4F6B684E844E}"/>
+    <hyperlink ref="L114" r:id="rId72" xr:uid="{46323209-2D63-462C-9928-577CF0275C78}"/>
+    <hyperlink ref="L115" r:id="rId73" xr:uid="{13CD3AAA-CFA5-4E22-B045-BDE8D91CDE22}"/>
+    <hyperlink ref="L116" r:id="rId74" xr:uid="{A67388F4-FD03-48D7-A1F9-8E0591AAFA54}"/>
+    <hyperlink ref="L117" r:id="rId75" xr:uid="{68818D09-7B85-479F-882B-AAE31A48AA11}"/>
+    <hyperlink ref="L118" r:id="rId76" xr:uid="{351C214D-99B1-4DB9-A287-B9F3803756B8}"/>
+    <hyperlink ref="L120" r:id="rId77" xr:uid="{1B01A3FA-B06C-4101-AD7F-17E86B66C4D0}"/>
+    <hyperlink ref="L121" r:id="rId78" xr:uid="{8A6BBCCF-C5E9-42B9-9F42-CBCA736161DF}"/>
+    <hyperlink ref="L122" r:id="rId79" xr:uid="{7D8E47CF-4DAF-4AC8-B8A2-9E9242DA85B0}"/>
+    <hyperlink ref="L123" r:id="rId80" xr:uid="{3AB2A13B-7937-4198-94BC-F2E32856715D}"/>
+    <hyperlink ref="L124" r:id="rId81" xr:uid="{936B0727-97F7-4899-8D44-B01EBDA8F73B}"/>
+    <hyperlink ref="L125" r:id="rId82" xr:uid="{4C583167-50FC-4356-95BC-6B37C737C2E4}"/>
+    <hyperlink ref="L126" r:id="rId83" xr:uid="{D29A37D8-4D69-4293-847B-A70A2B63487C}"/>
+    <hyperlink ref="L127" r:id="rId84" xr:uid="{D90F6EE5-B00E-4DDB-88A2-62394C95B68C}"/>
+    <hyperlink ref="L129" r:id="rId85" xr:uid="{C52BED61-E20A-4440-BA6D-EA2A250CA883}"/>
+    <hyperlink ref="L130" r:id="rId86" xr:uid="{B6044601-91E1-4BE3-9CBA-94E2BD361A4B}"/>
+    <hyperlink ref="L132" r:id="rId87" xr:uid="{8FDD4351-5C0E-4A00-B169-8C251FD77E75}"/>
+    <hyperlink ref="L133" r:id="rId88" xr:uid="{D90C8448-0419-4F26-886C-0502D90301CD}"/>
+    <hyperlink ref="L134" r:id="rId89" xr:uid="{CF72C2A0-7859-4890-B6E2-EEC11164717A}"/>
+    <hyperlink ref="L135" r:id="rId90" xr:uid="{E9FDBEDF-D891-4EBF-A145-045A32DE880A}"/>
+    <hyperlink ref="L136" r:id="rId91" xr:uid="{80276698-A4E0-4749-8CD0-4489B1B56F41}"/>
+    <hyperlink ref="L137" r:id="rId92" xr:uid="{E9E67327-6095-499E-A63A-F4B155D22F8F}"/>
+    <hyperlink ref="L138" r:id="rId93" xr:uid="{67B117A9-818D-44B3-97A5-7630332BEFE4}"/>
+    <hyperlink ref="L139" r:id="rId94" xr:uid="{DB36E2D4-3275-40A8-BAB1-ADCCD563D19B}"/>
+    <hyperlink ref="L140" r:id="rId95" xr:uid="{5C6DE078-17FA-4879-B61C-858356955B36}"/>
+    <hyperlink ref="L142" r:id="rId96" xr:uid="{A98BEF2A-F263-4A4E-95B3-92927C0D643A}"/>
+    <hyperlink ref="L141" r:id="rId97" xr:uid="{EBF2AA03-A37A-42F4-819A-1DF4A2169BE0}"/>
+    <hyperlink ref="L143" r:id="rId98" xr:uid="{ADB424B0-8E25-46E7-85E8-3448211879F7}"/>
+    <hyperlink ref="L144" r:id="rId99" xr:uid="{B941AB27-53C2-42B8-9B68-D468E6D1EAE1}"/>
+    <hyperlink ref="L55" r:id="rId100" xr:uid="{B4A83DFA-79BB-45A2-9F8E-B7D0EDA94EB0}"/>
+    <hyperlink ref="L56" r:id="rId101" xr:uid="{C278AA28-D9C8-4B1A-969D-597BD61007CF}"/>
+    <hyperlink ref="L57" r:id="rId102" xr:uid="{A39C7328-A6BA-4EEF-909D-191E446CA5AC}"/>
+    <hyperlink ref="L58" r:id="rId103" xr:uid="{F1C153AF-375C-47AF-B97F-01AD170A9F2F}"/>
+    <hyperlink ref="L59" r:id="rId104" xr:uid="{624F8761-8B46-4DE9-AB76-D7C008EE352A}"/>
+    <hyperlink ref="L60" r:id="rId105" xr:uid="{D48377CC-67A3-4ABE-B365-680486ED8D5E}"/>
+    <hyperlink ref="L61" r:id="rId106" xr:uid="{E68F9ECD-6EAC-4BB2-A89A-C8594E994D30}"/>
+    <hyperlink ref="L62" r:id="rId107" xr:uid="{D6CE4B82-B950-4615-AA3A-B1437808187A}"/>
+    <hyperlink ref="L63" r:id="rId108" xr:uid="{C2AABD3C-CD2E-4994-8D49-9A1AD3C7277A}"/>
+    <hyperlink ref="L64" r:id="rId109" xr:uid="{B2947F33-690B-4409-B9D3-C8224898682F}"/>
+    <hyperlink ref="L65" r:id="rId110" xr:uid="{AFE9DD9E-3A16-49BC-8092-25E27BE307B5}"/>
+    <hyperlink ref="L66" r:id="rId111" xr:uid="{789A4F87-4AB7-42EE-A928-24BE91F9A8EE}"/>
+    <hyperlink ref="L68" r:id="rId112" xr:uid="{DA5D67D9-3384-4771-AE09-A72457A1C0AE}"/>
+    <hyperlink ref="L69" r:id="rId113" xr:uid="{1C02F7A0-C11E-435B-A5E5-259A59E61B85}"/>
+    <hyperlink ref="L70" r:id="rId114" xr:uid="{78A23A2B-04F9-4E5A-8F34-735D46481CA9}"/>
+    <hyperlink ref="L71" r:id="rId115" xr:uid="{89C89C37-6D1D-4BB2-B2E0-D3B2FC60ACEF}"/>
+    <hyperlink ref="L72" r:id="rId116" xr:uid="{924D3D57-F793-4E16-B3D7-716EF88B7BD7}"/>
+    <hyperlink ref="L73" r:id="rId117" xr:uid="{755290BE-E39B-4694-A199-E09032B7FA18}"/>
+    <hyperlink ref="L74" r:id="rId118" xr:uid="{6F0B6441-65B1-4263-ACC7-7352ADC4AB55}"/>
+    <hyperlink ref="L75" r:id="rId119" xr:uid="{DFF60C94-664F-436E-B44F-9B9AA58824A5}"/>
+    <hyperlink ref="L76" r:id="rId120" xr:uid="{EBEB9719-6A2D-4791-A29A-75FCEFDD1057}"/>
+    <hyperlink ref="L77" r:id="rId121" xr:uid="{0B75219C-4AED-41EF-A4F0-7AF9DE0EC4BA}"/>
+    <hyperlink ref="L78" r:id="rId122" xr:uid="{E67C5D42-DC60-451B-9206-18D81F96332D}"/>
+    <hyperlink ref="L79" r:id="rId123" xr:uid="{D3D63B24-4880-4C93-B0FC-E2B67AFC122F}"/>
+    <hyperlink ref="L80" r:id="rId124" xr:uid="{FAE31AE4-38A5-499A-9BC6-5B361117A6F3}"/>
+    <hyperlink ref="L81" r:id="rId125" xr:uid="{71F2C3F6-E370-4990-AB2E-23F76E9E55FD}"/>
+    <hyperlink ref="L82" r:id="rId126" xr:uid="{9A62F8F3-8897-4A00-9428-091B0F931B87}"/>
+    <hyperlink ref="L83" r:id="rId127" xr:uid="{93366954-936B-44EC-9092-ADF2A02F4C9C}"/>
+    <hyperlink ref="L84" r:id="rId128" xr:uid="{E8385656-189C-435E-9D77-BE733DC53955}"/>
+    <hyperlink ref="L85" r:id="rId129" xr:uid="{30799BFD-7A63-42DC-98A0-91657970CF2F}"/>
+    <hyperlink ref="L86" r:id="rId130" xr:uid="{D05C5BC7-8FBF-46DA-B2F2-01F9D0CC446F}"/>
+    <hyperlink ref="L87" r:id="rId131" xr:uid="{FB69AAF3-7229-4BA2-94AE-3EA1C024FD48}"/>
+    <hyperlink ref="L88" r:id="rId132" xr:uid="{AB22D261-2924-4E70-8B60-FAFE0A5DE9E1}"/>
+    <hyperlink ref="L89" r:id="rId133" xr:uid="{13AB3EC2-8E2C-4DFF-A4EB-2E080D4C5240}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
